--- a/Factor_Data/US.xlsx
+++ b/Factor_Data/US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingzheli/Documents/QBUS5010/Factor_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4E4EC6-7C45-D94D-8C93-78E2B31AB503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149E5F6-57E5-BC4D-8416-B1C17CF122D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -12564,7 +12564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
